--- a/me/1.Mot-so-dieu-can-biet-ve-Javascript/8.Higher-Order-Functions-va-Callbacks.xlsx
+++ b/me/1.Mot-so-dieu-can-biet-ve-Javascript/8.Higher-Order-Functions-va-Callbacks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vudinhquang/Documents/quang/javascript_advance/me/1.Mot-so-dieu-can-biet-ve-Javascript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A022CA49-8518-7643-9E82-490A0CB26F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F71A86-D36E-A24E-B9D1-EB5CE9C7DFA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1080" windowWidth="32640" windowHeight="17920" activeTab="1" xr2:uid="{76467B97-6D21-5F4D-97AA-508F2E4477E4}"/>
+    <workbookView xWindow="41060" yWindow="3560" windowWidth="32640" windowHeight="17920" activeTab="1" xr2:uid="{76467B97-6D21-5F4D-97AA-508F2E4477E4}"/>
   </bookViews>
   <sheets>
     <sheet name="HOF và Calllbacks 01" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>bộ IT và thậm trí là trong toán học chứ không riêng gì là trong Javascript.</t>
   </si>
@@ -279,9 +279,6 @@
     <t>Global</t>
   </si>
   <si>
-    <t>Script</t>
-  </si>
-  <si>
     <t>arr: undefined</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
   </si>
   <si>
     <t>cloneArrayAndDoSomething(arr, handleAdd3)</t>
-  </si>
-  <si>
-    <t>const result = cloneArrayAndDoSomething(arr, handleAdd3)</t>
   </si>
   <si>
     <t>→</t>
@@ -421,12 +415,15 @@
       <t xml:space="preserve"> cũng được xoá đi</t>
     </r>
   </si>
+  <si>
+    <t>Script Scope</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -451,13 +448,27 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -552,7 +563,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -563,10 +574,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,13 +1373,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>533399</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>202254</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1403,13 +1422,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>65914</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1453,13 +1472,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>185</xdr:row>
+      <xdr:row>186</xdr:row>
       <xdr:rowOff>10076</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1503,13 +1522,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>186</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>88899</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>218</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>110730</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1553,13 +1572,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>253</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>138358</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1684,67 +1703,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB1AC53-AA2B-F5F9-F36E-27E99CB67A8C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2578100" y="10312400"/>
-          <a:ext cx="1714500" cy="2197100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1792,12 +1758,12 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>355600</xdr:colOff>
       <xdr:row>62</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1813,8 +1779,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="2832100" y="12776200"/>
-          <a:ext cx="10693400" cy="342900"/>
+          <a:off x="2832100" y="12763500"/>
+          <a:ext cx="9004300" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1844,13 +1810,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>88</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1897,13 +1863,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1950,13 +1916,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2003,13 +1969,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>99</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2056,13 +2022,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>127</xdr:row>
+      <xdr:row>128</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2109,13 +2075,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>128</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>132</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2162,13 +2128,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2217,13 +2183,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>199</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2239,8 +2205,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="9537700" y="16205200"/>
-          <a:ext cx="6565900" cy="24218900"/>
+          <a:off x="9537700" y="16256000"/>
+          <a:ext cx="8763000" cy="24168100"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2276,7 +2242,7 @@
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2323,13 +2289,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>190</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2376,13 +2342,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>221</xdr:row>
+      <xdr:row>222</xdr:row>
       <xdr:rowOff>126999</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2431,13 +2397,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>190</xdr:row>
+      <xdr:row>191</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>241</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3438,10 +3404,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1AEFA0E-BF83-4241-AA80-0A74429328EE}">
-  <dimension ref="B4:T81"/>
+  <dimension ref="B4:T82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="W239" sqref="W239"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3469,821 +3435,158 @@
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B5" s="4"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
       <c r="T5" s="5"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B6" s="4"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
       <c r="T6" s="5"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B7" s="4"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
       <c r="T7" s="5"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
       <c r="T8" s="5"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B9" s="4"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
       <c r="T9" s="5"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B10" s="4"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
       <c r="T10" s="5"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B11" s="4"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
       <c r="T11" s="5"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B12" s="4"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
       <c r="T12" s="5"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B13" s="4"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
       <c r="T13" s="5"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
       <c r="T14" s="5"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
       <c r="T15" s="5"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B16" s="4"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
       <c r="T16" s="5"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
       <c r="T17" s="5"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B18" s="4"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
       <c r="T18" s="5"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B19" s="4"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
       <c r="T19" s="5"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B20" s="4"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
       <c r="T20" s="5"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
       <c r="T21" s="5"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
       <c r="T22" s="5"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B23" s="4"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
       <c r="T23" s="5"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B24" s="4"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
       <c r="T24" s="5"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B25" s="4"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
       <c r="T25" s="5"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
       <c r="T26" s="5"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
       <c r="T27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
       <c r="T28" s="5"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
       <c r="T29" s="5"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
       <c r="T30" s="5"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
       <c r="T31" s="5"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
       <c r="T32" s="5"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="4"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
       <c r="T33" s="5"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="4"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
       <c r="T34" s="5"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="4"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
       <c r="T35" s="5"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="4"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
       <c r="T36" s="5"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="4"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
       <c r="T37" s="5"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B38" s="4"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
       <c r="T38" s="5"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B39" s="4"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
       <c r="T39" s="5"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B40" s="4"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
       <c r="T40" s="5"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B41" s="4"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
       <c r="T41" s="5"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B42" s="4"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
       <c r="T42" s="5"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="4"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
       <c r="T43" s="5"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
@@ -4320,406 +3623,344 @@
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="4"/>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B51" s="4"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B52" s="4"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B53" s="4"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="5"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B55" s="4"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="5"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B56" s="4"/>
+      <c r="C56" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10" t="s">
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="5"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B57" s="4"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B58" s="4"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="5"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B59" s="4"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
-      <c r="C50" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="11" t="s">
+      <c r="F59" s="18"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="5"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B60" s="4"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="18"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="5"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B61" s="4"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="5"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B52" s="6"/>
-      <c r="C52" s="7"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="3"/>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C55" s="4"/>
-      <c r="D55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C56" s="4"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C57" s="4"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C58" s="4"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C59" s="4"/>
-      <c r="D59" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C60" s="4"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C61" s="4"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C62" s="4"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10" t="s">
+      <c r="J62" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="5"/>
-      <c r="K62" t="s">
-        <v>28</v>
-      </c>
-      <c r="L62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C63" s="6"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7"/>
-      <c r="J63" s="8"/>
-      <c r="L63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
+      <c r="H63" s="8"/>
+      <c r="J63" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
       <c r="J64" s="10"/>
-    </row>
-    <row r="65" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C65" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="3"/>
+      <c r="K64" s="10"/>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C66" s="4"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="5"/>
+      <c r="C66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="3"/>
     </row>
     <row r="67" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
-      <c r="D67" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
       <c r="J67" s="5"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
+      <c r="D68" t="s">
+        <v>21</v>
+      </c>
       <c r="J68" s="5"/>
-      <c r="K68" t="s">
-        <v>28</v>
-      </c>
-      <c r="L68" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
       <c r="J69" s="5"/>
       <c r="K69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
+      <c r="E70" t="s">
+        <v>32</v>
+      </c>
       <c r="J70" s="5"/>
+      <c r="K70" t="s">
+        <v>26</v>
+      </c>
+      <c r="L70" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
       <c r="J71" s="5"/>
-      <c r="K71" t="s">
-        <v>28</v>
-      </c>
-      <c r="L71" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="13" t="s">
+      <c r="E72" t="s">
+        <v>35</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
+      <c r="L72" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="5"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C73" s="4"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="13" t="s">
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C74" s="4"/>
+      <c r="E74" t="s">
+        <v>37</v>
+      </c>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C75" s="6"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="8"/>
+    </row>
+    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D77" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D78" s="4"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D79" s="4"/>
+      <c r="E79" t="s">
+        <v>21</v>
+      </c>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D80" s="4"/>
+      <c r="F80" t="s">
         <v>39</v>
       </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C74" s="6"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="8"/>
-    </row>
-    <row r="75" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C76" s="10"/>
-      <c r="D76" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C77" s="10"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C78" s="10"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C79" s="10"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10" t="s">
+      <c r="J80" s="5"/>
+      <c r="K80" t="s">
+        <v>26</v>
+      </c>
+      <c r="L80" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D81" s="6"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="8"/>
+      <c r="L81" t="s">
         <v>41</v>
       </c>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="5"/>
-      <c r="K79" t="s">
-        <v>28</v>
-      </c>
-      <c r="L79" t="s">
+    </row>
+    <row r="82" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="L82" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C80" s="10"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="8"/>
-      <c r="L80" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="81" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L81" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
